--- a/inst/extdata/FSA_parameters.xlsx
+++ b/inst/extdata/FSA_parameters.xlsx
@@ -494,6 +494,27 @@
     <t>SPEC0017</t>
   </si>
   <si>
+    <t>0.001 - 100 (Higher values include less number of spectra marker peaks but with higher intensities)</t>
+  </si>
+  <si>
+    <t>Github wiki link</t>
+  </si>
+  <si>
+    <t>SPEC0018</t>
+  </si>
+  <si>
+    <t>≥ 1</t>
+  </si>
+  <si>
+    <t>Minimum number of matched peaks</t>
+  </si>
+  <si>
+    <t>SPEC0019</t>
+  </si>
+  <si>
+    <t>Precursor adduct types</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Select </t>
     </r>
@@ -514,6 +535,508 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> to ignore precursor type match </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> provide a string vector of precursor types. Precursor types should be inside brackets and quotation marks and preferably with +/- polarity signs. (Ex: c("[M]+", "[M+H]+"))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">≥ 0 (select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Inf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to export all spectra figures)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum percentage of the matched library and sample spectra markers (%) specified by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SPEC0009</t>
+    </r>
+  </si>
+  <si>
+    <t>≥ 0</t>
+  </si>
+  <si>
+    <t>Mass accuracy (Da) to integrate adjacent peaks and match fragments</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et. al.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described by Li </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>et. al.,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>SPEC0011</t>
+  </si>
+  <si>
+    <t>Maximum number of top hits spectra figures for the plotting module</t>
+  </si>
+  <si>
+    <t>Absolute spectral entropy difference (∆S) for library pre-filtering</t>
+  </si>
+  <si>
+    <t>≥ 0 (Default = 2)</t>
+  </si>
+  <si>
+    <t>Level of pre-filtering which is a rounding digit to match rounded spectra markers for a quick pre-filter run.</t>
+  </si>
+  <si>
+    <t>0-2 (Default = 1) Higher values can speed up the annotation functions; however, a high number may increase risk of skipping the true compounds when the number of spectra markers is low.</t>
+  </si>
+  <si>
+    <t>Maximum Normalized Euclidean Mass Error (NEME (mDa))</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.FSA/wiki/Spectral-Similarity-Metrics</t>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.FSA/wiki/MSP-Standardizations#standardizing-precursor-types</t>
+  </si>
+  <si>
+    <t>Select "Sample Mode" or "Peak Mode"</t>
+  </si>
+  <si>
+    <t>Sample Mode</t>
+  </si>
+  <si>
+    <t>Minimum distance (Da) between lowest and highest matched m/z to prevent matching only isotopic envelopes</t>
+  </si>
+  <si>
+    <t>SPEC0020</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (When `TRUE`, you may skip SPEC0012 and SPEC0018)</t>
+  </si>
+  <si>
+    <t>Data import and export (required)</t>
+  </si>
+  <si>
+    <t>Address of the MS/MS library (INPUT) msp files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of the reference </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files to process</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select "All" to include the entire </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> libraries or a list of semicolon separated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> libraries in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.msp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or provide an address to save the FSDB</t>
+    </r>
+  </si>
+  <si>
+    <t>FSDB file name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li et. al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by Li et. al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nature Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Create the FSdb using nominal masses</t>
+  </si>
+  <si>
+    <t>FSdb0009</t>
+  </si>
+  <si>
+    <t>TRUE or FALSE (When `TRUE`, skip FSdb0008)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Address to save the FSDB library in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow the naming rules in R! IDSL.FSA can generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.Rdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> format</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> to ignore precursor m/z. We suggest using a mass error for precursors in </t>
     </r>
     <r>
@@ -552,7 +1075,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> analyses and skipping this parameter for only one MS level DIA analyses such as </t>
+      <t xml:space="preserve"> analyses and skipping this parameter for only MS level 1 analyses such as </t>
     </r>
     <r>
       <rPr>
@@ -611,529 +1134,6 @@
       </rPr>
       <t>. When nominal masses are used, select `0` in case precursor masses are reliable.</t>
     </r>
-  </si>
-  <si>
-    <t>0.001 - 100 (Higher values include less number of spectra marker peaks but with higher intensities)</t>
-  </si>
-  <si>
-    <t>Github wiki link</t>
-  </si>
-  <si>
-    <t>SPEC0018</t>
-  </si>
-  <si>
-    <t>≥ 1</t>
-  </si>
-  <si>
-    <t>Minimum number of matched peaks</t>
-  </si>
-  <si>
-    <t>SPEC0019</t>
-  </si>
-  <si>
-    <t>Precursor adduct types</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to ignore precursor type match </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> provide a string vector of precursor types. Precursor types should be inside brackets and quotation marks and preferably with +/- polarity signs. (Ex: c("[M]+", "[M+H]+"))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">≥ 0 (select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Inf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to export all spectra figures)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Minimum percentage of the matched library and sample spectra markers (%) specified by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SPEC0009</t>
-    </r>
-  </si>
-  <si>
-    <t>≥ 0</t>
-  </si>
-  <si>
-    <t>Mass accuracy (Da) to integrate adjacent peaks and match fragments</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et. al.,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described by Li </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>et. al.,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>SPEC0011</t>
-  </si>
-  <si>
-    <t>Maximum number of top hits spectra figures for the plotting module</t>
-  </si>
-  <si>
-    <t>Absolute spectral entropy difference (∆S) for library pre-filtering</t>
-  </si>
-  <si>
-    <t>≥ 0 (Default = 2)</t>
-  </si>
-  <si>
-    <t>Level of pre-filtering which is a rounding digit to match rounded spectra markers for a quick pre-filter run.</t>
-  </si>
-  <si>
-    <t>0-2 (Default = 1) Higher values can speed up the annotation functions; however, a high number may increase risk of skipping the true compounds when the number of spectra markers is low.</t>
-  </si>
-  <si>
-    <t>Maximum Normalized Euclidean Mass Error (NEME (mDa))</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.FSA/wiki/Spectral-Similarity-Metrics</t>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.FSA/wiki/MSP-Standardizations#standardizing-precursor-types</t>
-  </si>
-  <si>
-    <t>Select "Sample Mode" or "Peak Mode"</t>
-  </si>
-  <si>
-    <t>Sample Mode</t>
-  </si>
-  <si>
-    <t>Minimum distance (Da) between lowest and highest matched m/z to prevent matching only isotopic envelopes</t>
-  </si>
-  <si>
-    <t>SPEC0020</t>
-  </si>
-  <si>
-    <t>TRUE or FALSE (When `TRUE`, you may skip SPEC0012 and SPEC0018)</t>
-  </si>
-  <si>
-    <t>Data import and export (required)</t>
-  </si>
-  <si>
-    <t>Address of the MS/MS library (INPUT) msp files</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name of the reference </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> files to process</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select "All" to include the entire </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> libraries or a list of semicolon separated</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> libraries in the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.msp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> or provide an address to save the FSDB</t>
-    </r>
-  </si>
-  <si>
-    <t>FSDB file name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Level of noise removal relative to the basepeak (%) similar to a method described by Li et. al., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Weighted spectra to measure entropy similarity score. Weighted functions are used to boost the intensity of low abundant peaks described</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> by Li et. al., </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nature Methods</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Create the FSdb using nominal masses</t>
-  </si>
-  <si>
-    <t>FSdb0009</t>
-  </si>
-  <si>
-    <t>TRUE or FALSE (When `TRUE`, skip FSdb0008)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Address to save the FSDB library in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Follow the naming rules in R! IDSL.FSA can generate the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.Rdata</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> format</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/idslme/IDSL.IPA/wiki/Parallelization-Mode</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,9 +1478,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1520,43 +1517,43 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1875,7 +1872,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -1892,7 +1889,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="25" t="s">
         <v>57</v>
       </c>
@@ -1908,7 +1905,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="25" t="s">
         <v>58</v>
       </c>
@@ -1921,7 +1918,7 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>59</v>
       </c>
@@ -1976,67 +1973,67 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>99</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2047,35 +2044,35 @@
       </c>
       <c r="D6" s="12">
         <f>SpectraSimilarity!D2</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="12" t="b">
         <f>SpectraSimilarity!D4</f>
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="17">
         <f>SpectraSimilarity!D9</f>
@@ -2086,7 +2083,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
@@ -2102,18 +2099,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="55.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="47" t="b">
+      <c r="A10" s="52"/>
+      <c r="B10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="46" t="b">
         <f>SpectraSimilarity!D14</f>
         <v>1</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2164,11 +2161,11 @@
         <v>4</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2178,15 +2175,17 @@
         <v>12</v>
       </c>
       <c r="D2" s="15">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="34"/>
+      <c r="F2" s="59" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2194,17 +2193,15 @@
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>111</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2215,30 +2212,30 @@
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="35"/>
+        <v>96</v>
+      </c>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2249,12 +2246,12 @@
         <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="35"/>
+        <v>111</v>
+      </c>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2267,31 +2264,31 @@
       <c r="E7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="35"/>
+        <v>86</v>
+      </c>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -2299,12 +2296,12 @@
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="58" t="s">
-        <v>91</v>
+      <c r="F9" s="56" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -2315,17 +2312,17 @@
         <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="59"/>
+        <v>69</v>
+      </c>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="8">
         <v>50</v>
@@ -2333,47 +2330,47 @@
       <c r="E11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="59"/>
+        <v>88</v>
+      </c>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8">
         <v>0.01</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="59"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="8" t="b">
         <v>1</v>
@@ -2381,42 +2378,42 @@
       <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="59"/>
+        <v>79</v>
+      </c>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="59"/>
+        <v>72</v>
+      </c>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
@@ -2429,10 +2426,10 @@
       <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="3" t="s">
         <v>68</v>
       </c>
@@ -2445,44 +2442,44 @@
       <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8">
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="60"/>
+        <v>79</v>
+      </c>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="39">
+      <c r="A20" s="54"/>
+      <c r="B20" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="38">
         <v>0</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="35"/>
+      <c r="E20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>13</v>
@@ -2493,18 +2490,19 @@
       <c r="E21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="F9:F19"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1"/>
     <hyperlink ref="F5" r:id="rId2" location="standardizing-precursor-types"/>
-    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
